--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANDRO\Projects\WhatsApp Bulk and Customized Messages Without Saving Contacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josen\Desktop\wha\WhatsApp-Bulk-and-Customized-Messages-Without-Saving-Contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A3EF5A-92B5-4073-80AF-F2C3244BFA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD45A9-4D9B-426D-9CB1-14FF08A33B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="1044" windowWidth="23040" windowHeight="10272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>GHI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Producto</t>
   </si>
@@ -45,34 +36,25 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Tame Impala</t>
-  </si>
-  <si>
-    <t>Tame</t>
-  </si>
-  <si>
-    <t>Bad Bunny</t>
-  </si>
-  <si>
-    <t>Benito</t>
-  </si>
-  <si>
-    <t>Claire Cottrill</t>
-  </si>
-  <si>
-    <t>Clairo</t>
-  </si>
-  <si>
-    <t>The Marías</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>JKL</t>
-  </si>
-  <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>Hola este es un mensaje de test</t>
+  </si>
+  <si>
+    <t>Tona</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Hola test</t>
   </si>
 </sst>
 </file>
@@ -408,87 +390,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C9:C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>50363020477</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>51966561101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="C3">
+        <v>50370910703</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>51954616042</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>51948769082</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>51991353065</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
   </sheetData>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josen\Desktop\wha\WhatsApp-Bulk-and-Customized-Messages-Without-Saving-Contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD45A9-4D9B-426D-9CB1-14FF08A33B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92AF4A-609D-4A4D-B14A-716546423060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ventas" sheetId="1" r:id="rId1"/>
+    <sheet name="Unab" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Celular</t>
   </si>
@@ -39,22 +33,19 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Hola este es un mensaje de test</t>
-  </si>
-  <si>
     <t>Tona</t>
   </si>
   <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>Hola test</t>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Es un gusto saludarte</t>
+  </si>
+  <si>
+    <t>Es divertido la programacion</t>
   </si>
 </sst>
 </file>
@@ -104,10 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,65 +380,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50363020477</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
+      <c r="B3">
+        <v>50370910703</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>50363020477</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>50370910703</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="159" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josen\Desktop\wha\WhatsApp-Bulk-and-Customized-Messages-Without-Saving-Contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92AF4A-609D-4A4D-B14A-716546423060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F84B510-8F5A-4B88-AEF2-945AD9FF272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
